--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.6869662983559</v>
+        <v>323.1734608018739</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.4739432852033</v>
+        <v>442.1801864759784</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.2160792244186</v>
+        <v>399.9791300824996</v>
       </c>
       <c r="AD2" t="n">
-        <v>254686.966298356</v>
+        <v>323173.4608018739</v>
       </c>
       <c r="AE2" t="n">
-        <v>348473.9432852033</v>
+        <v>442180.1864759783</v>
       </c>
       <c r="AF2" t="n">
         <v>1.040059185074644e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.09114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>315216.0792244187</v>
+        <v>399979.1300824996</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.383180175095</v>
+        <v>202.2584667191316</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.8656339038042</v>
+        <v>276.7389571787853</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.8363523523522</v>
+        <v>250.3273795112889</v>
       </c>
       <c r="AD3" t="n">
-        <v>153383.180175095</v>
+        <v>202258.4667191316</v>
       </c>
       <c r="AE3" t="n">
-        <v>209865.6339038042</v>
+        <v>276738.9571787852</v>
       </c>
       <c r="AF3" t="n">
         <v>1.557388702772404e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>189836.3523523522</v>
+        <v>250327.3795112889</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.2515894783392</v>
+        <v>173.3725201708084</v>
       </c>
       <c r="AB4" t="n">
-        <v>183.6889474863029</v>
+        <v>237.2159307533672</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.1579321473187</v>
+        <v>214.5763752569842</v>
       </c>
       <c r="AD4" t="n">
-        <v>134251.5894783392</v>
+        <v>173372.5201708084</v>
       </c>
       <c r="AE4" t="n">
-        <v>183688.9474863029</v>
+        <v>237215.9307533672</v>
       </c>
       <c r="AF4" t="n">
         <v>1.713052838835336e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.16015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>166157.9321473187</v>
+        <v>214576.3752569843</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>134.4139166286468</v>
+        <v>173.5348473211161</v>
       </c>
       <c r="AB5" t="n">
-        <v>183.9110506547222</v>
+        <v>237.4380339217865</v>
       </c>
       <c r="AC5" t="n">
-        <v>166.3588381010679</v>
+        <v>214.7772812107334</v>
       </c>
       <c r="AD5" t="n">
-        <v>134413.9166286468</v>
+        <v>173534.8473211161</v>
       </c>
       <c r="AE5" t="n">
-        <v>183911.0506547222</v>
+        <v>237438.0339217865</v>
       </c>
       <c r="AF5" t="n">
         <v>1.712884084157863e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.16015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>166358.8381010679</v>
+        <v>214777.2812107334</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.5831903861609</v>
+        <v>258.3128690181392</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.7643290231831</v>
+        <v>353.4350633501137</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.877347446321</v>
+        <v>319.7037169532049</v>
       </c>
       <c r="AD2" t="n">
-        <v>190583.1903861609</v>
+        <v>258312.8690181391</v>
       </c>
       <c r="AE2" t="n">
-        <v>260764.3290231831</v>
+        <v>353435.0633501137</v>
       </c>
       <c r="AF2" t="n">
         <v>1.36194231997316e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.61067708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>235877.347446321</v>
+        <v>319703.7169532049</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.3765627706189</v>
+        <v>169.0656049821272</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.3869649906897</v>
+        <v>231.3230193845285</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.361963419706</v>
+        <v>209.2458750784326</v>
       </c>
       <c r="AD3" t="n">
-        <v>130376.5627706189</v>
+        <v>169065.6049821272</v>
       </c>
       <c r="AE3" t="n">
-        <v>178386.9649906897</v>
+        <v>231323.0193845285</v>
       </c>
       <c r="AF3" t="n">
         <v>1.867273013233523e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.19921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>161361.963419706</v>
+        <v>209245.8750784326</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.5796136398005</v>
+        <v>169.2686558513088</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.664788147876</v>
+        <v>231.6008425417147</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.6132715246978</v>
+        <v>209.4971831834243</v>
       </c>
       <c r="AD4" t="n">
-        <v>130579.6136398005</v>
+        <v>169268.6558513088</v>
       </c>
       <c r="AE4" t="n">
-        <v>178664.788147876</v>
+        <v>231600.8425417148</v>
       </c>
       <c r="AF4" t="n">
         <v>1.865795823755913e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.205729166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>161613.2715246978</v>
+        <v>209497.1831834243</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.2637805554927</v>
+        <v>179.9738694464203</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.3373837390111</v>
+        <v>246.2481880632308</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.9353597471364</v>
+        <v>222.7466066060502</v>
       </c>
       <c r="AD2" t="n">
-        <v>133263.7805554927</v>
+        <v>179973.8694464203</v>
       </c>
       <c r="AE2" t="n">
-        <v>182337.3837390111</v>
+        <v>246248.1880632308</v>
       </c>
       <c r="AF2" t="n">
         <v>2.345559652227136e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.22135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>164935.3597471364</v>
+        <v>222746.6066060502</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.4627786435874</v>
+        <v>187.8083094782768</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.1873705205181</v>
+        <v>256.9676145459123</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.8452776147628</v>
+        <v>232.4429860700375</v>
       </c>
       <c r="AD2" t="n">
-        <v>140462.7786435874</v>
+        <v>187808.3094782768</v>
       </c>
       <c r="AE2" t="n">
-        <v>192187.3705205181</v>
+        <v>256967.6145459124</v>
       </c>
       <c r="AF2" t="n">
         <v>2.011292964104941e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.31901041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>173845.2776147628</v>
+        <v>232442.9860700375</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.7427495312111</v>
+        <v>173.1556001736049</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.046777287123</v>
+        <v>236.9191312433587</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.6268743320563</v>
+        <v>214.3079018756501</v>
       </c>
       <c r="AD3" t="n">
-        <v>125742.7495312111</v>
+        <v>173155.6001736049</v>
       </c>
       <c r="AE3" t="n">
-        <v>172046.777287123</v>
+        <v>236919.1312433587</v>
       </c>
       <c r="AF3" t="n">
         <v>2.157452871325249e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.622395833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>155626.8743320563</v>
+        <v>214307.9018756501</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.8728037919094</v>
+        <v>188.0958653588711</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.1166291343705</v>
+        <v>257.3610611878112</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.5904104942412</v>
+        <v>232.7988827166396</v>
       </c>
       <c r="AD2" t="n">
-        <v>141872.8037919094</v>
+        <v>188095.8653588711</v>
       </c>
       <c r="AE2" t="n">
-        <v>194116.6291343705</v>
+        <v>257361.0611878113</v>
       </c>
       <c r="AF2" t="n">
         <v>2.491943603273074e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>175590.4104942412</v>
+        <v>232798.8827166396</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.6727843292309</v>
+        <v>265.8932021332704</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.1470653957542</v>
+        <v>363.8068095389311</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.028468277378</v>
+        <v>329.0855982425988</v>
       </c>
       <c r="AD2" t="n">
-        <v>207672.7843292309</v>
+        <v>265893.2021332704</v>
       </c>
       <c r="AE2" t="n">
-        <v>284147.0653957542</v>
+        <v>363806.8095389311</v>
       </c>
       <c r="AF2" t="n">
         <v>1.273723529803398e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.15755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>257028.468277378</v>
+        <v>329085.5982425989</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.1432715717539</v>
+        <v>180.5864298394019</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.8042539140928</v>
+        <v>247.0863202171651</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.5485496809466</v>
+        <v>223.504748603539</v>
       </c>
       <c r="AD3" t="n">
-        <v>132143.2715717539</v>
+        <v>180586.4298394019</v>
       </c>
       <c r="AE3" t="n">
-        <v>180804.2539140928</v>
+        <v>247086.320217165</v>
       </c>
       <c r="AF3" t="n">
         <v>1.810375002042621e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.2578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>163548.5496809466</v>
+        <v>223504.748603539</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.1989566761886</v>
+        <v>180.6421149438365</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.8804447306337</v>
+        <v>247.1625110337059</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.6174689528914</v>
+        <v>223.5736678754837</v>
       </c>
       <c r="AD4" t="n">
-        <v>132198.9566761886</v>
+        <v>180642.1149438365</v>
       </c>
       <c r="AE4" t="n">
-        <v>180880.4447306337</v>
+        <v>247162.5110337059</v>
       </c>
       <c r="AF4" t="n">
         <v>1.807981075195046e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>163617.4689528914</v>
+        <v>223573.6678754837</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.3537285565876</v>
+        <v>197.4908387353579</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.774651614306</v>
+        <v>270.2156782384871</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.1856322322323</v>
+        <v>244.4266731575713</v>
       </c>
       <c r="AD2" t="n">
-        <v>142353.7285565876</v>
+        <v>197490.8387353579</v>
       </c>
       <c r="AE2" t="n">
-        <v>194774.651614306</v>
+        <v>270215.6782384871</v>
       </c>
       <c r="AF2" t="n">
         <v>2.546459102028135e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>176185.6322322323</v>
+        <v>244426.6731575713</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.9171611532983</v>
+        <v>207.413658436075</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.123273768217</v>
+        <v>283.7925179169109</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.5465964121597</v>
+        <v>256.7077583123049</v>
       </c>
       <c r="AD2" t="n">
-        <v>149917.1611532983</v>
+        <v>207413.658436075</v>
       </c>
       <c r="AE2" t="n">
-        <v>205123.273768217</v>
+        <v>283792.5179169109</v>
       </c>
       <c r="AF2" t="n">
         <v>1.718820754481441e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.86588541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>185546.5964121596</v>
+        <v>256707.7583123049</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.1304917181255</v>
+        <v>175.9712254096048</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.3137914870083</v>
+        <v>240.7715939078705</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.5820892819889</v>
+        <v>217.7926909104275</v>
       </c>
       <c r="AD3" t="n">
-        <v>128130.4917181255</v>
+        <v>175971.2254096048</v>
       </c>
       <c r="AE3" t="n">
-        <v>175313.7914870083</v>
+        <v>240771.5939078705</v>
       </c>
       <c r="AF3" t="n">
         <v>1.994606512584721e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.361979166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>158582.0892819889</v>
+        <v>217792.6909104275</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.484573788144</v>
+        <v>241.3237965810184</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.0516886249193</v>
+        <v>330.1898649365111</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.091667815888</v>
+        <v>298.6770076514547</v>
       </c>
       <c r="AD2" t="n">
-        <v>183484.573788144</v>
+        <v>241323.7965810184</v>
       </c>
       <c r="AE2" t="n">
-        <v>251051.6886249193</v>
+        <v>330189.8649365111</v>
       </c>
       <c r="AF2" t="n">
         <v>1.461432979160488e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.06380208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>227091.667815888</v>
+        <v>298677.0076514548</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.7804413171233</v>
+        <v>177.9344082577871</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.571325318995</v>
+        <v>243.4577072902668</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.6241672535201</v>
+        <v>220.2224454015926</v>
       </c>
       <c r="AD3" t="n">
-        <v>129780.4413171233</v>
+        <v>177934.4082577871</v>
       </c>
       <c r="AE3" t="n">
-        <v>177571.325318995</v>
+        <v>243457.7072902668</v>
       </c>
       <c r="AF3" t="n">
         <v>1.900872736932101e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>160624.1672535201</v>
+        <v>220222.4454015926</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.6783592896528</v>
+        <v>168.2495666344485</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.4316521854687</v>
+        <v>230.2064797161639</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.4978243278251</v>
+        <v>208.2358963889431</v>
       </c>
       <c r="AD4" t="n">
-        <v>129678.3592896528</v>
+        <v>168249.5666344485</v>
       </c>
       <c r="AE4" t="n">
-        <v>177431.6521854688</v>
+        <v>230206.4797161639</v>
       </c>
       <c r="AF4" t="n">
         <v>1.907939077686115e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.23828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>160497.8243278251</v>
+        <v>208235.8963889431</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.183624053509</v>
+        <v>302.4561490832058</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.4203658821975</v>
+        <v>413.8338465992093</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.8398958753037</v>
+        <v>374.3381250992316</v>
       </c>
       <c r="AD2" t="n">
-        <v>234183.624053509</v>
+        <v>302456.1490832058</v>
       </c>
       <c r="AE2" t="n">
-        <v>320420.3658821975</v>
+        <v>413833.8465992092</v>
       </c>
       <c r="AF2" t="n">
         <v>1.115972813977154e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.35546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>289839.8958753037</v>
+        <v>374338.1250992316</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.9799290516609</v>
+        <v>188.7941039355162</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.5267144070239</v>
+        <v>258.3164220124887</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.2476735935036</v>
+        <v>233.6630652450674</v>
       </c>
       <c r="AD3" t="n">
-        <v>139979.9290516609</v>
+        <v>188794.1039355162</v>
       </c>
       <c r="AE3" t="n">
-        <v>191526.7144070239</v>
+        <v>258316.4220124886</v>
       </c>
       <c r="AF3" t="n">
         <v>1.629350334801745e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.837239583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>173247.6735935036</v>
+        <v>233663.0652450674</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.5795380237773</v>
+        <v>172.5977235419379</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.7694170373542</v>
+        <v>236.1558198241323</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.3261603938483</v>
+        <v>213.6174398269602</v>
       </c>
       <c r="AD4" t="n">
-        <v>133579.5380237773</v>
+        <v>172597.7235419379</v>
       </c>
       <c r="AE4" t="n">
-        <v>182769.4170373542</v>
+        <v>236155.8198241323</v>
       </c>
       <c r="AF4" t="n">
         <v>1.742146210823563e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.19921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>165326.1603938483</v>
+        <v>213617.4398269602</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.7724184066058</v>
+        <v>189.3038085449311</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.9792774215076</v>
+        <v>259.0138223456701</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.4661674360795</v>
+        <v>234.2939066692577</v>
       </c>
       <c r="AD2" t="n">
-        <v>141772.4184066058</v>
+        <v>189303.8085449311</v>
       </c>
       <c r="AE2" t="n">
-        <v>193979.2774215076</v>
+        <v>259013.8223456701</v>
       </c>
       <c r="AF2" t="n">
         <v>1.948752248731119e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>175466.1674360795</v>
+        <v>234293.9066692577</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.5836458297591</v>
+        <v>174.1823557757887</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.1973287005221</v>
+        <v>238.3239835555261</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.6676187333701</v>
+        <v>215.5786770548673</v>
       </c>
       <c r="AD3" t="n">
-        <v>126583.6458297591</v>
+        <v>174182.3557757887</v>
       </c>
       <c r="AE3" t="n">
-        <v>173197.3287005221</v>
+        <v>238323.9835555261</v>
       </c>
       <c r="AF3" t="n">
         <v>2.097499783162087e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.524739583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>156667.6187333701</v>
+        <v>215578.6770548674</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.090244862689</v>
+        <v>180.4275142370075</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.7857474962914</v>
+        <v>246.8688848791076</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.5816340510857</v>
+        <v>223.3080649889733</v>
       </c>
       <c r="AD2" t="n">
-        <v>124090.244862689</v>
+        <v>180427.5142370075</v>
       </c>
       <c r="AE2" t="n">
-        <v>169785.7474962914</v>
+        <v>246868.8848791076</v>
       </c>
       <c r="AF2" t="n">
         <v>2.287560606645804e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.928385416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>153581.6340510857</v>
+        <v>223308.0649889733</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.8211120713997</v>
+        <v>179.3851145784414</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.7317051899201</v>
+        <v>245.4426276788308</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.3874863086952</v>
+        <v>222.017927774126</v>
       </c>
       <c r="AD2" t="n">
-        <v>132821.1120713997</v>
+        <v>179385.1145784414</v>
       </c>
       <c r="AE2" t="n">
-        <v>181731.7051899201</v>
+        <v>245442.6276788308</v>
       </c>
       <c r="AF2" t="n">
         <v>2.416498546403914e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.55338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>164387.4863086952</v>
+        <v>222017.927774126</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.3847189899581</v>
+        <v>217.0578573141674</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.181936430159</v>
+        <v>296.9881362939365</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.9772042516347</v>
+        <v>268.6440053915981</v>
       </c>
       <c r="AD2" t="n">
-        <v>162384.7189899581</v>
+        <v>217057.8573141674</v>
       </c>
       <c r="AE2" t="n">
-        <v>222181.936430159</v>
+        <v>296988.1362939365</v>
       </c>
       <c r="AF2" t="n">
         <v>2.563787417574949e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.15755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>200977.2042516347</v>
+        <v>268644.005391598</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.7732648712055</v>
+        <v>223.3943907980227</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.818294396973</v>
+        <v>305.6580609546706</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.1710747212668</v>
+        <v>276.4864846110302</v>
       </c>
       <c r="AD2" t="n">
-        <v>165773.2648712055</v>
+        <v>223394.3907980227</v>
       </c>
       <c r="AE2" t="n">
-        <v>226818.294396973</v>
+        <v>305658.0609546707</v>
       </c>
       <c r="AF2" t="n">
         <v>1.592564533390065e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>205171.0747212668</v>
+        <v>276486.4846110302</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.9488189155826</v>
+        <v>176.9495096501827</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.4334628606166</v>
+        <v>242.1101255646831</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.594900791169</v>
+        <v>219.0034749845553</v>
       </c>
       <c r="AD3" t="n">
-        <v>128948.8189155826</v>
+        <v>176949.5096501827</v>
       </c>
       <c r="AE3" t="n">
-        <v>176433.4628606166</v>
+        <v>242110.1255646831</v>
       </c>
       <c r="AF3" t="n">
         <v>1.946610046878648e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.309895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>159594.900791169</v>
+        <v>219003.4749845553</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.9701291470147</v>
+        <v>284.1244306977368</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.499858628459</v>
+        <v>388.7515807658733</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.2977668577024</v>
+        <v>351.649675513848</v>
       </c>
       <c r="AD2" t="n">
-        <v>215970.1291470148</v>
+        <v>284124.4306977369</v>
       </c>
       <c r="AE2" t="n">
-        <v>295499.858628459</v>
+        <v>388751.5807658733</v>
       </c>
       <c r="AF2" t="n">
         <v>1.18907617359979e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.76953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>267297.7668577024</v>
+        <v>351649.675513848</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.4123759332771</v>
+        <v>185.0940198980761</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.6454308411181</v>
+        <v>253.2538037962785</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.8322528802017</v>
+        <v>229.0836162059814</v>
       </c>
       <c r="AD3" t="n">
-        <v>136412.3759332771</v>
+        <v>185094.0198980761</v>
       </c>
       <c r="AE3" t="n">
-        <v>186645.4308411181</v>
+        <v>253253.8037962785</v>
       </c>
       <c r="AF3" t="n">
         <v>1.708540793789955e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>168832.2528802017</v>
+        <v>229083.6162059814</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.2237312966411</v>
+        <v>171.1358920795566</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.914342459316</v>
+        <v>234.1556775258507</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.648131529924</v>
+        <v>211.8081883024086</v>
       </c>
       <c r="AD4" t="n">
-        <v>132223.7312966411</v>
+        <v>171135.8920795567</v>
       </c>
       <c r="AE4" t="n">
-        <v>180914.342459316</v>
+        <v>234155.6775258507</v>
       </c>
       <c r="AF4" t="n">
         <v>1.789336898581529e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.153645833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>163648.131529924</v>
+        <v>211808.1883024086</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.9230356231358</v>
+        <v>266.093070677331</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.3340526199828</v>
+        <v>364.0802784984926</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.010943036691</v>
+        <v>329.3329677084759</v>
       </c>
       <c r="AD2" t="n">
-        <v>193923.0356231358</v>
+        <v>266093.070677331</v>
       </c>
       <c r="AE2" t="n">
-        <v>265334.0526199828</v>
+        <v>364080.2784984926</v>
       </c>
       <c r="AF2" t="n">
         <v>2.472225222497284e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.07421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>240010.943036691</v>
+        <v>329332.9677084759</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.9804178640513</v>
+        <v>182.5707341895761</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.3719655853016</v>
+        <v>249.8013329704017</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.9210271154615</v>
+        <v>225.9606443501519</v>
       </c>
       <c r="AD2" t="n">
-        <v>125980.4178640513</v>
+        <v>182570.7341895761</v>
       </c>
       <c r="AE2" t="n">
-        <v>172371.9655853016</v>
+        <v>249801.3329704017</v>
       </c>
       <c r="AF2" t="n">
         <v>2.18278416931412e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>155921.0271154615</v>
+        <v>225960.6443501519</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.9439494951861</v>
+        <v>172.1594887977581</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.9538238372636</v>
+        <v>235.5562077135933</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.6382308254813</v>
+        <v>213.0750538546899</v>
       </c>
       <c r="AD3" t="n">
-        <v>124943.9494951861</v>
+        <v>172159.4887977581</v>
       </c>
       <c r="AE3" t="n">
-        <v>170953.8238372636</v>
+        <v>235556.2077135933</v>
       </c>
       <c r="AF3" t="n">
         <v>2.222374371440073e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.74609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>154638.2308254814</v>
+        <v>213075.0538546899</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.2555148716318</v>
+        <v>192.9629348095376</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.7450036683247</v>
+        <v>264.0204003301599</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.7770594586407</v>
+        <v>238.8226638776858</v>
       </c>
       <c r="AD2" t="n">
-        <v>145255.5148716317</v>
+        <v>192962.9348095376</v>
       </c>
       <c r="AE2" t="n">
-        <v>198745.0036683247</v>
+        <v>264020.4003301599</v>
       </c>
       <c r="AF2" t="n">
         <v>1.839564785183633e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.48177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>179777.0594586407</v>
+        <v>238822.6638776858</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.3572015694912</v>
+        <v>175.0304560886163</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.2557417904938</v>
+        <v>239.4843918190813</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.6250183635273</v>
+        <v>216.6283375823924</v>
       </c>
       <c r="AD3" t="n">
-        <v>127357.2015694912</v>
+        <v>175030.4560886163</v>
       </c>
       <c r="AE3" t="n">
-        <v>174255.7417904938</v>
+        <v>239484.3918190813</v>
       </c>
       <c r="AF3" t="n">
         <v>2.042489544487753e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.440104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>157625.0183635273</v>
+        <v>216628.3375823924</v>
       </c>
     </row>
   </sheetData>
